--- a/docs/mcode-r4/shr-core-RelationToLandmark-extension.xlsx
+++ b/docs/mcode-r4/shr-core-RelationToLandmark-extension.xlsx
@@ -213,7 +213,7 @@
     <t>landmarktype</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkType-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkType-extension}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>landmarklocation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkLocation-extension}
 </t>
   </si>
   <si>
@@ -233,7 +233,7 @@
     <t>landmarktobodylocationdirection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkToBodyLocationDirection-extension}
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>landmarktobodylocationdistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-LandmarkToBodyLocationDistance-extension}
 </t>
   </si>
   <si>
@@ -266,7 +266,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-RelationToLandmark-extension</t>
   </si>
   <si>
     <t>Extension.value[x]</t>

--- a/docs/mcode-r4/shr-core-RelationToLandmark-extension.xlsx
+++ b/docs/mcode-r4/shr-core-RelationToLandmark-extension.xlsx
@@ -142,11 +142,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
